--- a/testCase/sqszyyadmin/departmentManage.xlsx
+++ b/testCase/sqszyyadmin/departmentManage.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" tabRatio="644" activeTab="1"/>
@@ -16,7 +16,7 @@
     <sheet name="searchDepartment" sheetId="7" r:id="rId7"/>
     <sheet name="updateDepartment" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -41,9 +41,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>delete from departments where hospital_id='sqsrmyyadmin' and department_name like '睿博二级科室%';</t>
-  </si>
-  <si>
     <t>departmentName</t>
   </si>
   <si>
@@ -123,6 +120,10 @@
   </si>
   <si>
     <t>ehospital2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete from departments where hospital_id='sqszyyadmin' and department_name like '睿博二级科室%';</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -717,7 +718,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -726,9 +727,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1117,67 +1115,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>100003</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2713350</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4">
-        <v>100003</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2713350</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +1189,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1215,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -1228,12 +1226,14 @@
       <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="13" t="s">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="H2" s="1"/>
     </row>
@@ -1258,25 +1258,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1301,31 +1301,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>7</v>
+      <c r="D1" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>15</v>
+      <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1350,31 +1350,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>7</v>
+      <c r="D1" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>15</v>
+      <c r="C2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1405,67 +1405,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="9" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="9">
+        <v>100003</v>
+      </c>
+      <c r="F2" s="9">
+        <v>2713350</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="10">
-        <v>100003</v>
-      </c>
-      <c r="F2" s="10">
-        <v>2713350</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="J2" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1490,31 +1490,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>7</v>
+      <c r="D1" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>15</v>
+      <c r="C2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1545,67 +1545,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>12</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="D2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="12">
+        <v>100004</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2713350</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="13">
-        <v>100004</v>
-      </c>
-      <c r="F2" s="13">
-        <v>2713350</v>
-      </c>
-      <c r="G2" s="14" t="s">
+      <c r="H2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/sqszyyadmin/departmentManage.xlsx
+++ b/testCase/sqszyyadmin/departmentManage.xlsx
@@ -4,24 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" tabRatio="644" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" tabRatio="644" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="insertDepartment" sheetId="2" r:id="rId1"/>
     <sheet name="deleteDepartment" sheetId="1" r:id="rId2"/>
     <sheet name="hideDepartment" sheetId="3" r:id="rId3"/>
-    <sheet name="moveDownDepartment" sheetId="4" r:id="rId4"/>
-    <sheet name="moveTopDepartment" sheetId="5" r:id="rId5"/>
-    <sheet name="moveUpDepartment" sheetId="6" r:id="rId6"/>
-    <sheet name="searchDepartment" sheetId="7" r:id="rId7"/>
-    <sheet name="updateDepartment" sheetId="8" r:id="rId8"/>
+    <sheet name="searchDepartment" sheetId="7" r:id="rId4"/>
+    <sheet name="updateDepartment" sheetId="8" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
   <si>
     <t>caseName</t>
   </si>
@@ -86,44 +83,37 @@
     <t>隐藏</t>
   </si>
   <si>
-    <t>下移二级科室</t>
-  </si>
-  <si>
-    <t>置顶二级科室</t>
-  </si>
-  <si>
-    <t>上移二级科室</t>
-  </si>
-  <si>
     <t>搜索二级科室</t>
   </si>
   <si>
     <t>编辑二级科室</t>
   </si>
   <si>
+    <t>睿博二级科室</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛夏路560号</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室特色</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室简介</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>睿博二级科室（改）</t>
-  </si>
-  <si>
-    <t>盛夏路560号（改）</t>
-  </si>
-  <si>
-    <t>科室特色（改）</t>
-  </si>
-  <si>
-    <t>科室简介（改）</t>
-  </si>
-  <si>
-    <t>注意事项（改）</t>
-  </si>
-  <si>
-    <t>databaseName</t>
-  </si>
-  <si>
-    <t>ehospital2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>delete from departments where hospital_id='sqszyyadmin' and department_name like '睿博二级科室%';</t>
+    <t>delete from departments where department_name like '睿博二级科室%';</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +708,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -730,21 +720,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1099,7 +1074,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1160,7 +1135,7 @@
         <v>14</v>
       </c>
       <c r="E2" s="3">
-        <v>100003</v>
+        <v>312001</v>
       </c>
       <c r="F2" s="3">
         <v>2713350</v>
@@ -1186,23 +1161,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="5" max="5" width="98" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="98" customWidth="1"/>
+    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1212,14 +1186,11 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="25.5" customHeight="1">
+    <row r="2" spans="1:7" ht="25.5" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1229,13 +1200,10 @@
       <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="D2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1290,195 +1258,6 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="18.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="15.125" customWidth="1"/>
-    <col min="5" max="5" width="14.75" customWidth="1"/>
-    <col min="6" max="6" width="16.25" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="18.875" customWidth="1"/>
-    <col min="9" max="9" width="18" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="9">
-        <v>100003</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2713350</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -1490,30 +1269,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1523,12 +1302,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1536,8 +1315,8 @@
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="18.75" customWidth="1"/>
     <col min="4" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
     <col min="7" max="7" width="18.625" customWidth="1"/>
     <col min="8" max="8" width="17.5" customWidth="1"/>
     <col min="9" max="9" width="14.375" customWidth="1"/>
@@ -1545,67 +1324,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="7">
+        <v>312002</v>
+      </c>
+      <c r="F2" s="7">
+        <v>2713350</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="12" t="s">
+      <c r="I2" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="12">
-        <v>100004</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2713350</v>
-      </c>
-      <c r="G2" s="13" t="s">
+      <c r="J2" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/sqszyyadmin/departmentManage.xlsx
+++ b/testCase/sqszyyadmin/departmentManage.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
   <si>
     <t>caseName</t>
   </si>
@@ -65,18 +65,6 @@
     <t>睿博二级科室</t>
   </si>
   <si>
-    <t>科室地址</t>
-  </si>
-  <si>
-    <t>科室特色</t>
-  </si>
-  <si>
-    <t>科室简介</t>
-  </si>
-  <si>
-    <t>注意事项</t>
-  </si>
-  <si>
     <t>隐藏二级科室</t>
   </si>
   <si>
@@ -89,31 +77,71 @@
     <t>编辑二级科室</t>
   </si>
   <si>
+    <t>delete from departments where department_name like '睿博二级科室%';</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>睿博二级科室</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>盛夏路560号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室特色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>科室简介</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>注意事项</t>
+    <t>睿博二级科室1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>睿博二级科室2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室地址1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室地址2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室特色1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室简介1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室特色2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室简介2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>盛夏路560号3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室特色3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>科室简介3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意事项3</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>睿博二级科室（改）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>delete from departments where department_name like '睿博二级科室%';</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1071,10 +1099,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1128,11 +1156,11 @@
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
+      <c r="C2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="3">
         <v>312001</v>
@@ -1140,17 +1168,49 @@
       <c r="F2" s="3">
         <v>2713350</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7">
+        <v>312002</v>
+      </c>
+      <c r="F3" s="7">
+        <v>2713350</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1201,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -1238,13 +1298,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1344,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -1307,7 +1367,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1357,34 +1417,34 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E2" s="7">
-        <v>312002</v>
+        <v>312003</v>
       </c>
       <c r="F2" s="7">
         <v>2713350</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/testCase/sqszyyadmin/departmentManage.xlsx
+++ b/testCase/sqszyyadmin/departmentManage.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" tabRatio="644" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20355" windowHeight="7725" tabRatio="644" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="insertDepartment" sheetId="2" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>caseName</t>
   </si>
@@ -29,9 +29,6 @@
     <t>expectedResult</t>
   </si>
   <si>
-    <t>sql</t>
-  </si>
-  <si>
     <t>数据库删除二级科室</t>
   </si>
   <si>
@@ -77,10 +74,6 @@
     <t>编辑二级科室</t>
   </si>
   <si>
-    <t>delete from departments where department_name like '睿博二级科室%';</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>睿博二级科室</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -143,6 +136,21 @@
   <si>
     <t>睿博二级科室（改）</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>department_name</t>
+  </si>
+  <si>
+    <t>conditionKey</t>
+  </si>
+  <si>
+    <t>conditionValue</t>
+  </si>
+  <si>
+    <t>tableName</t>
+  </si>
+  <si>
+    <t>departments</t>
   </si>
 </sst>
 </file>
@@ -736,12 +744,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
@@ -1118,99 +1123,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2">
+        <v>312001</v>
+      </c>
+      <c r="F2" s="2">
+        <v>2713350</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3">
-        <v>312001</v>
-      </c>
-      <c r="F2" s="3">
-        <v>2713350</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>25</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="A3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="6">
+        <v>312002</v>
+      </c>
+      <c r="F3" s="6">
+        <v>2713350</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
-        <v>312002</v>
-      </c>
-      <c r="F3" s="7">
-        <v>2713350</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1221,49 +1226,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="18.375" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="98" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="16.375" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="25.5" customHeight="1">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="1"/>
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -1286,25 +1303,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1329,31 +1346,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>6</v>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>14</v>
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1366,8 +1383,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1384,67 +1401,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="6" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E2" s="7">
+      <c r="A2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="6">
         <v>312003</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="6">
         <v>2713350</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
   </sheetData>
